--- a/database/industries/ghaza/ghefars/eps.xlsx
+++ b/database/industries/ghaza/ghefars/eps.xlsx
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>-86</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>0</v>
